--- a/tests/mail_list.xlsx
+++ b/tests/mail_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pyoutlookmailing\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72071A4-9B77-4839-9731-E45E5DC73807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBD8DA0-5A6E-4BC0-BE80-342CCEAEF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="49755" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="50640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1490">
   <si>
     <t>EmailAptitudeEn</t>
   </si>
@@ -4324,13 +4324,199 @@
   </si>
   <si>
     <t>josephine.regnier@finances.gouv.fr</t>
+  </si>
+  <si>
+    <t>testmailunfold@yopmail.com</t>
+  </si>
+  <si>
+    <t>webuild</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>norbert.sagstetter@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>connor.fitzmaurice@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>david.magard@bolagsverket.se</t>
+  </si>
+  <si>
+    <t>benoit.krystlik@worldline.com</t>
+  </si>
+  <si>
+    <t>colombe.herault@worldline.com</t>
+  </si>
+  <si>
+    <t>CONTACTS-TOP-UP-CALL</t>
+  </si>
+  <si>
+    <t>CONTACTS-VIP-INTERNATIONAUX</t>
+  </si>
+  <si>
+    <t>CONTACTS-COMMISSION-EU</t>
+  </si>
+  <si>
+    <t>CONTACTS-ENTITES-PAS-INSCRITE</t>
+  </si>
+  <si>
+    <t>CONTACTS-DANEMARK</t>
+  </si>
+  <si>
+    <t>Adrian.Bieschke@bmi.bund.de</t>
+  </si>
+  <si>
+    <t>Davorka.Sel@gov.si</t>
+  </si>
+  <si>
+    <t>Declan.Hickey@per.gov.ie</t>
+  </si>
+  <si>
+    <t>Gawel.Lisowski@cyfra.gov.pl</t>
+  </si>
+  <si>
+    <t>Joanna.Koczorowska@cyfra.gov.pl</t>
+  </si>
+  <si>
+    <t>Mail@egov.government.bg</t>
+  </si>
+  <si>
+    <t>Marek.Canecky@mzv.sk</t>
+  </si>
+  <si>
+    <t>Mirko.CALVARESI@ext.ec.europa.eu</t>
+  </si>
+  <si>
+    <t>angelluis.martin1@digital.gob.es</t>
+  </si>
+  <si>
+    <t>daniel.catalanp@digital.gob.es</t>
+  </si>
+  <si>
+    <t>digst@digst.dk</t>
+  </si>
+  <si>
+    <t>eIDAS-SPOC@mindigital.gr</t>
+  </si>
+  <si>
+    <t>eIDAS@eIDAS.gov.lt</t>
+  </si>
+  <si>
+    <t>eidas-spid@agid.gov.it</t>
+  </si>
+  <si>
+    <t>eidas.mita@gov.mt</t>
+  </si>
+  <si>
+    <t>eidas@bosa.fgov.be</t>
+  </si>
+  <si>
+    <t>eidas@ctie.etat.lu</t>
+  </si>
+  <si>
+    <t>eidas@lists.ria.ee</t>
+  </si>
+  <si>
+    <t>eidas@minbzk.nl</t>
+  </si>
+  <si>
+    <t>eidas@mvcr.cz</t>
+  </si>
+  <si>
+    <t>eidas@nases.gov.sk</t>
+  </si>
+  <si>
+    <t>eidas@traficom.fi</t>
+  </si>
+  <si>
+    <t>eiuk@mod.gov.lv</t>
+  </si>
+  <si>
+    <t>hrvoje.perinic@rdd.hr</t>
+  </si>
+  <si>
+    <t>info.cidadao@ama.pt</t>
+  </si>
+  <si>
+    <t>mariacarmen.barrera@digital.gob.es</t>
+  </si>
+  <si>
+    <t>martin.denesi@mirri.gov.sk</t>
+  </si>
+  <si>
+    <t>michal.ilko@mirri.gov.sk</t>
+  </si>
+  <si>
+    <t>raul.iturbe@digital.gob.es</t>
+  </si>
+  <si>
+    <t>si-trust@gov.si</t>
+  </si>
+  <si>
+    <t>ugyfelszolgalat@bm.gov.hu</t>
+  </si>
+  <si>
+    <t>Chris@valid8.com.au</t>
+  </si>
+  <si>
+    <t>arjan.geluk@a4advisory.com</t>
+  </si>
+  <si>
+    <t>daniel@openwallet.foundation</t>
+  </si>
+  <si>
+    <t>rolf.rauschenbach@bj.admin.ch</t>
+  </si>
+  <si>
+    <t>ruth@openwallet.foundation</t>
+  </si>
+  <si>
+    <t>wr.teter@unesco.org</t>
+  </si>
+  <si>
+    <t>Konstantin.HYPPOENEN@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>norbert.sagstetter@gmail.com</t>
+  </si>
+  <si>
+    <t>paolo.de-rosa@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>CONTACTS-ENTITES-FRANCAISES-PAS-INSCRITE</t>
+  </si>
+  <si>
+    <t>d.liarodimou@hcaa.gov.gr</t>
+  </si>
+  <si>
+    <t>erik@enzozystems.com</t>
+  </si>
+  <si>
+    <t>filippoalberto.cotta@esteri.it</t>
+  </si>
+  <si>
+    <t>k.lykou@hcaa.gov.gr</t>
+  </si>
+  <si>
+    <t>pablo.castillo@chain4travel.com</t>
+  </si>
+  <si>
+    <t>berlel@um.dk</t>
+  </si>
+  <si>
+    <t>pialev@um.dk</t>
+  </si>
+  <si>
+    <t>Francois.Depienne@digital.etat.lu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4372,6 +4558,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4418,6 +4605,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4451,7 +4646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -4464,8 +4659,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4501,10 +4697,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="6" xr:uid="{0E728F32-42C9-4C66-B542-D4BE1F6D85DE}"/>
     <cellStyle name="Hyperlink 2" xfId="9" xr:uid="{6BC3652A-3D52-410B-AEE6-51014E6D6F42}"/>
+    <cellStyle name="Hyperlink 3" xfId="10" xr:uid="{7473E10F-17D1-483E-A2B8-8971860D62E4}"/>
     <cellStyle name="Lien hypertexte" xfId="7" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{31B7EB2C-0AA9-4DA2-B522-0B2347B8762F}"/>
     <cellStyle name="Lien hypertexte 3" xfId="2" xr:uid="{2B048FB5-24E9-459C-9D03-06D5570FF178}"/>
@@ -4790,10 +4988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J835"/>
+  <dimension ref="A1:U835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,9 +5005,16 @@
     <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.28515625" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4840,8 +5045,32 @@
       <c r="J1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>1437</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4872,8 +5101,32 @@
       <c r="J2" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4889,6 +5142,9 @@
       <c r="E3" t="s">
         <v>563</v>
       </c>
+      <c r="F3" t="s">
+        <v>1428</v>
+      </c>
       <c r="G3" t="s">
         <v>540</v>
       </c>
@@ -4901,8 +5157,32 @@
       <c r="J3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T3" t="s">
+        <v>243</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1308</v>
       </c>
@@ -4930,8 +5210,26 @@
       <c r="J4" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>896</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4959,8 +5257,20 @@
       <c r="J5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4988,8 +5298,20 @@
       <c r="J6" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5017,8 +5339,20 @@
       <c r="J7" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5046,8 +5380,17 @@
       <c r="J8" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S8" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5075,8 +5418,17 @@
       <c r="J9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>292</v>
+      </c>
+      <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5104,8 +5456,17 @@
       <c r="J10" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5133,8 +5494,17 @@
       <c r="J11" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="T11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -5162,8 +5532,17 @@
       <c r="J12" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>612</v>
+      </c>
+      <c r="S12" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>324</v>
       </c>
@@ -5191,8 +5570,17 @@
       <c r="J13" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="T13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1309</v>
       </c>
@@ -5220,8 +5608,17 @@
       <c r="J14" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1332</v>
+      </c>
+      <c r="T14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1310</v>
       </c>
@@ -5249,8 +5646,17 @@
       <c r="J15" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>515</v>
+      </c>
+      <c r="S15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1311</v>
       </c>
@@ -5278,8 +5684,17 @@
       <c r="J16" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5304,8 +5719,17 @@
       <c r="J17" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S17" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1312</v>
       </c>
@@ -5330,8 +5754,17 @@
       <c r="J18" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5356,8 +5789,17 @@
       <c r="J19" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5382,8 +5824,17 @@
       <c r="J20" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S20" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1313</v>
       </c>
@@ -5408,8 +5859,17 @@
       <c r="J21" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>760</v>
+      </c>
+      <c r="S21" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1314</v>
       </c>
@@ -5434,8 +5894,17 @@
       <c r="J22" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>1454</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1353</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5460,8 +5929,17 @@
       <c r="J23" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>1455</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="T23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5486,8 +5964,14 @@
       <c r="J24" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="T24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5512,8 +5996,14 @@
       <c r="J25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>1457</v>
+      </c>
+      <c r="T25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -5538,8 +6028,14 @@
       <c r="J26" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>1458</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1315</v>
       </c>
@@ -5564,8 +6060,14 @@
       <c r="J27" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>1459</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5590,8 +6092,14 @@
       <c r="J28" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>1460</v>
+      </c>
+      <c r="T28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -5616,8 +6124,14 @@
       <c r="J29" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="T29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1316</v>
       </c>
@@ -5642,8 +6156,14 @@
       <c r="J30" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>1462</v>
+      </c>
+      <c r="T30" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1317</v>
       </c>
@@ -5665,8 +6185,14 @@
       <c r="J31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="T31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -5688,8 +6214,14 @@
       <c r="J32" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>205</v>
+      </c>
+      <c r="T32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1221</v>
       </c>
@@ -5711,8 +6243,14 @@
       <c r="J33" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>178</v>
+      </c>
+      <c r="T33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -5734,8 +6272,14 @@
       <c r="J34" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>281</v>
+      </c>
+      <c r="T34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -5757,8 +6301,14 @@
       <c r="J35" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>1464</v>
+      </c>
+      <c r="T35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -5780,8 +6330,14 @@
       <c r="J36" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>1465</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5803,8 +6359,14 @@
       <c r="J37" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>851</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -5826,8 +6388,14 @@
       <c r="J38" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>223</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1219</v>
       </c>
@@ -5849,8 +6417,14 @@
       <c r="J39" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>303</v>
+      </c>
+      <c r="T39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1220</v>
       </c>
@@ -5872,8 +6446,14 @@
       <c r="J40" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5895,8 +6475,14 @@
       <c r="J41" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1221</v>
       </c>
@@ -5918,8 +6504,14 @@
       <c r="J42" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>1468</v>
+      </c>
+      <c r="T42" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1318</v>
       </c>
@@ -5941,8 +6533,14 @@
       <c r="J43" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>262</v>
+      </c>
+      <c r="T43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -5964,8 +6562,14 @@
       <c r="J44" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>1469</v>
+      </c>
+      <c r="T44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5987,8 +6591,14 @@
       <c r="J45" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="T45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -6010,8 +6620,14 @@
       <c r="J46" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T46" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1319</v>
       </c>
@@ -6033,8 +6649,14 @@
       <c r="J47" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="T47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1320</v>
       </c>
@@ -6056,8 +6678,14 @@
       <c r="J48" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>1471</v>
+      </c>
+      <c r="T48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1321</v>
       </c>
@@ -6076,8 +6704,14 @@
       <c r="J49" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>1489</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -6096,8 +6730,14 @@
       <c r="J50" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>972</v>
+      </c>
+      <c r="T50" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -6113,8 +6753,11 @@
       <c r="E51" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6130,8 +6773,11 @@
       <c r="E52" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1322</v>
       </c>
@@ -6147,8 +6793,11 @@
       <c r="E53" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -6164,8 +6813,11 @@
       <c r="E54" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1224</v>
       </c>
@@ -6181,8 +6833,11 @@
       <c r="E55" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -6198,8 +6853,11 @@
       <c r="E56" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6215,8 +6873,11 @@
       <c r="E57" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -6232,8 +6893,11 @@
       <c r="E58" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -6249,8 +6913,11 @@
       <c r="E59" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -6266,8 +6933,11 @@
       <c r="E60" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1323</v>
       </c>
@@ -6283,8 +6953,11 @@
       <c r="E61" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -6300,8 +6973,11 @@
       <c r="E62" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -6317,8 +6993,11 @@
       <c r="E63" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -6334,8 +7013,11 @@
       <c r="E64" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1024</v>
       </c>
@@ -6351,8 +7033,11 @@
       <c r="E65" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -6368,8 +7053,11 @@
       <c r="E66" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -6386,7 +7074,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -6403,7 +7091,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -6420,7 +7108,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -6437,7 +7125,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -6454,7 +7142,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -6471,7 +7159,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -6488,7 +7176,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>519</v>
       </c>
@@ -6505,7 +7193,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -6522,7 +7210,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -6539,7 +7227,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -6556,7 +7244,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -6573,7 +7261,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -6590,7 +7278,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1324</v>
       </c>
@@ -9427,86 +10115,92 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1434</v>
+      </c>
       <c r="E352" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1435</v>
+      </c>
       <c r="E353" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
         <v>839</v>
       </c>
@@ -12020,9 +12714,12 @@
     <hyperlink ref="L361" r:id="rId170" display="igors.griscenko@vdaa.gov.lv" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
     <hyperlink ref="H29" r:id="rId171" display="mailto:tom.houriez@peren.gouv.fr" xr:uid="{F267B6BF-0BF9-43FD-A866-ED538BB821AC}"/>
     <hyperlink ref="I16" r:id="rId172" display="mailto:phouric.ung@memority.com" xr:uid="{5B41EEEE-22D1-4F53-92C0-EEF358FAF7B6}"/>
+    <hyperlink ref="F3" r:id="rId173" xr:uid="{EA6FF0F1-7444-4DE3-8706-97E9AA3BE75B}"/>
+    <hyperlink ref="A352" r:id="rId174" xr:uid="{1C3A7D36-DEFF-41A5-85BD-1670892396A3}"/>
+    <hyperlink ref="A353" r:id="rId175" xr:uid="{E054883C-B7D5-4A6A-ACBB-B51338ACABA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId176"/>
 </worksheet>
 </file>
 
